--- a/Output/Cuadros/3. HUELGAS/cuadro3_huelgas.xlsx
+++ b/Output/Cuadros/3. HUELGAS/cuadro3_huelgas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,6 +508,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +523,9 @@
       <c r="AD2">
         <v>4</v>
       </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -612,6 +620,9 @@
       <c r="AD3">
         <v>6</v>
       </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -706,6 +717,9 @@
       <c r="AD4">
         <v>14</v>
       </c>
+      <c r="AE4">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -800,6 +814,9 @@
       <c r="AD5">
         <v>4</v>
       </c>
+      <c r="AE5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -891,6 +908,9 @@
       <c r="AD6">
         <v>2</v>
       </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -985,6 +1005,9 @@
       <c r="AD7">
         <v>3</v>
       </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1079,6 +1102,9 @@
       <c r="AD8">
         <v>31</v>
       </c>
+      <c r="AE8">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1170,6 +1196,9 @@
       <c r="AD9">
         <v>1</v>
       </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1264,6 +1293,9 @@
       <c r="AD10">
         <v>63</v>
       </c>
+      <c r="AE10">
+        <v>49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1357,6 +1389,9 @@
       </c>
       <c r="AD11">
         <v>15</v>
+      </c>
+      <c r="AE11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
